--- a/data/Michel CruzT3-2025.xlsx
+++ b/data/Michel CruzT3-2025.xlsx
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>27.07687351000004</v>
+        <v>30.08541501000004</v>
       </c>
     </row>
     <row r="15">
